--- a/Mifos Automation Excels/Client/4603-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-REPAY15JAN-THROUGH-COLLECTION-SHEET.xlsx
+++ b/Mifos Automation Excels/Client/4603-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-REPAY15JAN-THROUGH-COLLECTION-SHEET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>submittedon</t>
   </si>
@@ -243,9 +243,6 @@
     <t>clickonsubmit</t>
   </si>
   <si>
-    <t>selectweekTuesday</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -259,6 +256,15 @@
   </si>
   <si>
     <t>4600-Holidays</t>
+  </si>
+  <si>
+    <t>selectRepeatevery</t>
+  </si>
+  <si>
+    <t>selectweekdaysfriday</t>
+  </si>
+  <si>
+    <t>WED</t>
   </si>
 </sst>
 </file>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -722,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -793,31 +799,39 @@
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -831,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -841,10 +855,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -955,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1881,7 +1895,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1889,7 +1903,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
